--- a/medicine/Médecine vétérinaire/Méloxicam/Méloxicam.xlsx
+++ b/medicine/Médecine vétérinaire/Méloxicam/Méloxicam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9loxicam</t>
+          <t>Méloxicam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le méloxicam (Mobic) est un anti-inflammatoire non stéroïdien. Il inhibe plus la cyclooxygénase COX-2, tout en épargnant relativement la cyclooxygénase constitutive COX-1[2] mais la sélectivité d'inhibition sur COX-2 n'apparaît qu'aux posologies minimales recommandées[3].
+Le méloxicam (Mobic) est un anti-inflammatoire non stéroïdien. Il inhibe plus la cyclooxygénase COX-2, tout en épargnant relativement la cyclooxygénase constitutive COX-1 mais la sélectivité d'inhibition sur COX-2 n'apparaît qu'aux posologies minimales recommandées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9loxicam</t>
+          <t>Méloxicam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Effets indésirables possible</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hypertension artérielle
 Insuffisance cardiaque
@@ -590,7 +604,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9loxicam</t>
+          <t>Méloxicam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -608,9 +622,11 @@
           <t>Usage vétérinaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le méloxicam s'utilise aussi pour la gestion de la douleur péri-opératoire et l'inflammation en domaine vétérinaire[4]. Une étude sur des chiens confirme que l'administration du méloxicam avant une opération peut aussi prévenir de l'hypertension reliée à une maladie cardiaque, même chez les animaux normotendus et sans maladie cardiaque, d'âge avancé, car des troubles valvulaires se développent fréquemment chez les chiens âgés. Les valeurs des pressions sanguines systoliques, diastoliques et la valeur moyenne du groupe administré le méloxicam étaient de 5  à   20 mm Hg inférieures à celles du groupe de contrôle jusqu'à 5 jours après la chirurgie[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le méloxicam s'utilise aussi pour la gestion de la douleur péri-opératoire et l'inflammation en domaine vétérinaire. Une étude sur des chiens confirme que l'administration du méloxicam avant une opération peut aussi prévenir de l'hypertension reliée à une maladie cardiaque, même chez les animaux normotendus et sans maladie cardiaque, d'âge avancé, car des troubles valvulaires se développent fréquemment chez les chiens âgés. Les valeurs des pressions sanguines systoliques, diastoliques et la valeur moyenne du groupe administré le méloxicam étaient de 5  à   20 mm Hg inférieures à celles du groupe de contrôle jusqu'à 5 jours après la chirurgie.
 </t>
         </is>
       </c>
